--- a/docs/artifacts/rules/dms-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/dms-addition-svein-harald.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60659BF-EACB-49D5-ACBF-1FFA2F613AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1DC56-EFCD-4764-80D9-0CF7EC94B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="128">
   <si>
     <t>role</t>
   </si>
@@ -383,63 +383,12 @@
     <t>OnshoreSubstation</t>
   </si>
   <si>
+    <t>TransmissionSubstation</t>
+  </si>
+  <si>
     <t>Transmission</t>
   </si>
   <si>
-    <t>TransmissionSubstation</t>
-  </si>
-  <si>
-    <t>power:CircuitBreaker</t>
-  </si>
-  <si>
-    <t>power:CurrentTransformer</t>
-  </si>
-  <si>
-    <t>power:DisconnectSwitch</t>
-  </si>
-  <si>
-    <t>power:EnergyArea</t>
-  </si>
-  <si>
-    <t>power:EnergyConsumer</t>
-  </si>
-  <si>
-    <t>power:GeneratingUnit</t>
-  </si>
-  <si>
-    <t>power:GeoLocation</t>
-  </si>
-  <si>
-    <t>power:Meter</t>
-  </si>
-  <si>
-    <t>power:MultiLineString</t>
-  </si>
-  <si>
-    <t>power:Point</t>
-  </si>
-  <si>
-    <t>power:Polygon</t>
-  </si>
-  <si>
-    <t>power:PowerLine</t>
-  </si>
-  <si>
-    <t>power:Substation</t>
-  </si>
-  <si>
-    <t>power:VoltageLevel</t>
-  </si>
-  <si>
-    <t>power:VoltageTransformer</t>
-  </si>
-  <si>
-    <t>power:WindFarm</t>
-  </si>
-  <si>
-    <t>power:WindTurbine</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -455,13 +404,13 @@
     <t>Energy Area 2</t>
   </si>
   <si>
-    <t>Generating Unit</t>
-  </si>
-  <si>
     <t>This is the second container for the Energy Area</t>
   </si>
   <si>
-    <t>This is the second container for the Generating Unit</t>
+    <t>Generating Unit 2</t>
+  </si>
+  <si>
+    <t>This is the second container for the GeneratingUnit</t>
   </si>
 </sst>
 </file>
@@ -860,13 +809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -972,9 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1032,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>39</v>
@@ -1141,7 +1088,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>39</v>
@@ -1488,16 +1435,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -1546,24 +1493,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1518,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1581,7 +1527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3730,7 +3676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,7 +3684,8 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="7" width="13" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3784,6 +3731,9 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
@@ -3828,6 +3778,9 @@
       <c r="A7" t="s">
         <v>78</v>
       </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
@@ -3839,6 +3792,9 @@
       <c r="A8" t="s">
         <v>115</v>
       </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
@@ -3850,6 +3806,9 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
@@ -3883,6 +3842,9 @@
       <c r="A12" t="s">
         <v>105</v>
       </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
@@ -3930,6 +3892,9 @@
       <c r="A16" t="s">
         <v>79</v>
       </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
@@ -3941,6 +3906,9 @@
       <c r="A17" t="s">
         <v>107</v>
       </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
@@ -3952,6 +3920,9 @@
       <c r="A18" t="s">
         <v>117</v>
       </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
@@ -3963,6 +3934,9 @@
       <c r="A19" t="s">
         <v>68</v>
       </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
@@ -3974,6 +3948,9 @@
       <c r="A20" t="s">
         <v>63</v>
       </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
@@ -4005,24 +3982,30 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4051,6 +4034,9 @@
       <c r="A27" t="s">
         <v>101</v>
       </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
@@ -4061,6 +4047,9 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -4091,8 +4080,9 @@
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -4127,141 +4117,156 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -4358,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">

--- a/docs/artifacts/rules/dms-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/dms-addition-svein-harald.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1DC56-EFCD-4764-80D9-0CF7EC94B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60080300-9B4C-4DCA-BB7B-68BFBA105878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="127">
   <si>
     <t>role</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Point</t>
-  </si>
-  <si>
-    <t>activePower2</t>
   </si>
   <si>
     <t>type</t>
@@ -919,15 +916,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="10" width="13" customWidth="1"/>
@@ -1032,7 +1029,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>39</v>
@@ -1088,7 +1085,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>39</v>
@@ -1493,24 +1490,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1523,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,16 +2106,18 @@
         <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="b">
         <v>0</v>
@@ -2129,7 +2128,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2137,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2145,18 +2144,16 @@
         <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G20" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="b">
         <v>0</v>
@@ -2167,7 +2164,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2175,7 +2172,7 @@
         <v>42</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2183,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2203,7 +2200,7 @@
         <v>42</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2211,164 +2208,166 @@
         <v>42</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="G26" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="H26" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G27" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="b">
         <v>0</v>
@@ -2376,7 +2375,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>76</v>
@@ -2384,117 +2383,115 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="4" t="s">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -2533,124 +2530,126 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="5" t="b">
         <v>0</v>
@@ -2658,34 +2657,32 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G38" s="5" t="b">
         <v>1</v>
@@ -2696,32 +2693,34 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F39" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G39" s="5" t="b">
         <v>1</v>
@@ -2732,7 +2731,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>85</v>
@@ -2740,71 +2739,65 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>89</v>
@@ -2812,10 +2805,10 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="b">
@@ -2828,7 +2821,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>89</v>
@@ -2836,7 +2829,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>90</v>
@@ -2844,10 +2837,10 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="b">
@@ -2860,7 +2853,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>90</v>
@@ -2868,48 +2861,54 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G44" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="H44" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F45" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G45" s="4" t="b">
         <v>1</v>
@@ -2920,37 +2919,35 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="G46" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4" t="b">
         <v>0</v>
@@ -2958,35 +2955,37 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F47" s="4" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="b">
         <v>0</v>
@@ -2994,37 +2993,35 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G48" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="4" t="b">
         <v>0</v>
@@ -3032,7 +3029,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>94</v>
@@ -3040,7 +3037,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>94</v>
@@ -3048,19 +3045,21 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F49" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="b">
         <v>0</v>
@@ -3068,7 +3067,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>95</v>
@@ -3076,7 +3075,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>95</v>
@@ -3084,21 +3083,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G50" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="4" t="b">
         <v>0</v>
@@ -3106,7 +3103,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>96</v>
@@ -3114,123 +3111,125 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P51" s="4" t="s">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P53" s="5" t="s">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>99</v>
@@ -3241,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="4" t="b">
         <v>1</v>
@@ -3252,7 +3251,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>99</v>
@@ -3260,106 +3259,106 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P56" s="4" t="s">
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G58" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="G58" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="H58" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3367,7 +3366,7 @@
         <v>40</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G59" s="5" t="b">
         <v>1</v>
@@ -3378,125 +3377,123 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P61" s="5" t="s">
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="G63" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="4" t="b">
         <v>0</v>
@@ -3504,7 +3501,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>110</v>
@@ -3512,7 +3509,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>110</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>111</v>
@@ -3529,10 +3526,10 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="G64" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4" t="b">
         <v>0</v>
@@ -3540,7 +3537,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>111</v>
@@ -3548,7 +3545,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>111</v>
@@ -3556,16 +3553,16 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="G65" s="4" t="b">
         <v>1</v>
@@ -3576,35 +3573,35 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G66" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="4" t="b">
         <v>0</v>
@@ -3612,53 +3609,17 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P67" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3729,16 +3690,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3776,35 +3737,35 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -3813,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3840,16 +3801,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3857,7 +3818,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3868,66 +3829,66 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
         <v>117</v>
       </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3935,7 +3896,7 @@
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3949,7 +3910,7 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3960,79 +3921,79 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -4041,12 +4002,12 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
@@ -4055,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4160,7 +4121,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -4168,29 +4129,29 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4198,7 +4159,7 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -4209,7 +4170,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -4217,56 +4178,56 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -4363,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">

--- a/docs/artifacts/rules/dms-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/dms-addition-svein-harald.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60080300-9B4C-4DCA-BB7B-68BFBA105878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89CE9F3-F045-4D9F-8E64-5667DD9A64A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="128">
   <si>
     <t>role</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>This is the second container for the GeneratingUnit</t>
+  </si>
+  <si>
+    <t>Immutable</t>
   </si>
 </sst>
 </file>
@@ -914,11 +917,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,15 +930,15 @@
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="25.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="7" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -954,8 +957,9 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -978,34 +982,37 @@
         <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1026,24 +1033,27 @@
       <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1060,8 +1070,9 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -1082,24 +1093,27 @@
       <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1116,8 +1130,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1136,24 +1151,27 @@
       <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1172,24 +1190,27 @@
       <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -1208,24 +1229,27 @@
       <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1244,24 +1268,27 @@
       <c r="H10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1280,26 +1307,29 @@
       <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
+      <c r="N11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1316,30 +1346,33 @@
         <v>1</v>
       </c>
       <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
+      <c r="N12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1520,11 +1553,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,15 +1566,15 @@
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1"/>
-    <col min="13" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="7" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1560,8 +1593,9 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1584,34 +1618,37 @@
         <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -1630,24 +1667,27 @@
       <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1664,8 +1704,9 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -1684,24 +1725,27 @@
       <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1718,8 +1762,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -1738,24 +1783,27 @@
       <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1772,8 +1820,9 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1792,24 +1841,27 @@
       <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -1830,24 +1882,27 @@
       <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1866,24 +1921,27 @@
       <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1902,24 +1960,27 @@
       <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1936,8 +1997,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -1956,24 +2018,27 @@
       <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -1994,24 +2059,27 @@
       <c r="H15" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -2030,24 +2098,27 @@
       <c r="H16" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2064,8 +2135,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -2084,24 +2156,27 @@
       <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
@@ -2122,24 +2197,27 @@
       <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -2158,24 +2236,27 @@
       <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
@@ -2194,24 +2275,27 @@
       <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2228,8 +2312,9 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2248,24 +2333,27 @@
       <c r="H23" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2282,8 +2370,9 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -2299,23 +2388,24 @@
         <v>74</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2334,24 +2424,27 @@
       <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -2372,24 +2465,27 @@
       <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2406,8 +2502,9 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -2423,23 +2520,24 @@
         <v>68</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2456,8 +2554,9 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -2476,24 +2575,27 @@
       <c r="H31" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="Q31" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -2512,24 +2614,27 @@
       <c r="H32" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="Q32" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2546,8 +2651,9 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -2563,23 +2669,24 @@
         <v>68</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2596,8 +2703,9 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
@@ -2616,24 +2724,27 @@
       <c r="H36" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="Q36" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2654,24 +2765,27 @@
       <c r="H37" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="Q37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
@@ -2690,24 +2804,27 @@
       <c r="H38" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="Q38" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>82</v>
       </c>
@@ -2728,24 +2845,27 @@
       <c r="H39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2762,8 +2882,9 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>87</v>
       </c>
@@ -2779,23 +2900,24 @@
         <v>56</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>87</v>
       </c>
@@ -2811,23 +2933,24 @@
         <v>59</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
@@ -2843,23 +2966,24 @@
         <v>60</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
@@ -2878,24 +3002,27 @@
       <c r="H44" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -2916,24 +3043,27 @@
       <c r="H45" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I45" s="4"/>
+      <c r="I45" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
@@ -2952,24 +3082,27 @@
       <c r="H46" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
@@ -2990,24 +3123,27 @@
       <c r="H47" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -3026,24 +3162,27 @@
       <c r="H48" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>87</v>
       </c>
@@ -3064,24 +3203,27 @@
       <c r="H49" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="4"/>
+      <c r="I49" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J49" s="4"/>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -3100,24 +3242,27 @@
       <c r="H50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="4"/>
+      <c r="P50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3134,8 +3279,9 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>86</v>
       </c>
@@ -3154,24 +3300,27 @@
       <c r="H52" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J52" s="5"/>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="P52" s="5" t="s">
+      <c r="Q52" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3188,8 +3337,9 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -3210,24 +3360,27 @@
       <c r="H54" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>92</v>
       </c>
@@ -3248,24 +3401,27 @@
       <c r="H55" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J55" s="4"/>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3282,8 +3438,9 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>100</v>
       </c>
@@ -3299,23 +3456,24 @@
         <v>102</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
+      <c r="O57" s="5"/>
+      <c r="P57" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="Q57" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>100</v>
       </c>
@@ -3336,24 +3494,27 @@
       <c r="H58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="5"/>
+      <c r="L58" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="M58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="5" t="s">
+      <c r="O58" s="5"/>
+      <c r="P58" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P58" s="5" t="s">
+      <c r="Q58" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>100</v>
       </c>
@@ -3374,24 +3535,27 @@
       <c r="H59" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="5"/>
+      <c r="L59" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="5"/>
+      <c r="P59" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P59" s="5" t="s">
+      <c r="Q59" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>100</v>
       </c>
@@ -3407,23 +3571,24 @@
         <v>108</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
+      <c r="O60" s="5"/>
+      <c r="P60" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P60" s="5" t="s">
+      <c r="Q60" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3440,8 +3605,9 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>108</v>
       </c>
@@ -3462,24 +3628,27 @@
       <c r="H62" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J62" s="4"/>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="4" t="s">
+      <c r="O62" s="4"/>
+      <c r="P62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="Q62" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>108</v>
       </c>
@@ -3498,24 +3667,27 @@
       <c r="H63" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J63" s="4"/>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="4" t="s">
+      <c r="O63" s="4"/>
+      <c r="P63" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="Q63" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>108</v>
       </c>
@@ -3534,24 +3706,27 @@
       <c r="H64" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J64" s="4"/>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4" t="s">
+      <c r="O64" s="4"/>
+      <c r="P64" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="Q64" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>108</v>
       </c>
@@ -3570,24 +3745,27 @@
       <c r="H65" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J65" s="4"/>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="4" t="s">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>108</v>
       </c>
@@ -3606,26 +3784,29 @@
       <c r="H66" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="J66" s="4"/>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="4" t="s">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="Q66" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/artifacts/rules/dms-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/dms-addition-svein-harald.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89CE9F3-F045-4D9F-8E64-5667DD9A64A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A4C64-FAEA-224D-BEE4-6F0E6135ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="128">
   <si>
     <t>role</t>
   </si>
@@ -44,9 +44,6 @@
     <t>schema</t>
   </si>
   <si>
-    <t>extended</t>
-  </si>
-  <si>
     <t>extension</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Immutable</t>
+  </si>
+  <si>
+    <t>partial</t>
   </si>
 </sst>
 </file>
@@ -432,16 +432,19 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -809,15 +812,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,78 +838,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>45431.294770416673</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>45431.294791666667</v>
@@ -919,28 +924,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="1" sqref="A3 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
     <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="25.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.5" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -959,73 +964,73 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1039,21 +1044,21 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1072,20 +1077,20 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -1099,21 +1104,21 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1132,18 +1137,18 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1157,32 +1162,32 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>0</v>
@@ -1196,32 +1201,32 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>0</v>
@@ -1235,32 +1240,32 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>0</v>
@@ -1274,32 +1279,32 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>0</v>
@@ -1313,34 +1318,34 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>1</v>
@@ -1354,20 +1359,20 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1380,25 +1385,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1408,47 +1413,63 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1468,18 +1489,18 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1487,60 +1508,60 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1560,23 +1581,23 @@
       <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1595,71 +1616,71 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1673,21 +1694,21 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1706,18 +1727,18 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -1731,21 +1752,21 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1764,18 +1785,18 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1789,21 +1810,21 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1822,18 +1843,18 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="b">
         <v>0</v>
@@ -1847,34 +1868,34 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="5" t="b">
         <v>1</v>
@@ -1888,32 +1909,32 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5" t="b">
         <v>0</v>
@@ -1927,32 +1948,32 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="b">
         <v>0</v>
@@ -1966,21 +1987,21 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1999,18 +2020,18 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="4" t="b">
         <v>0</v>
@@ -2024,34 +2045,34 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="b">
         <v>1</v>
@@ -2065,32 +2086,32 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>0</v>
@@ -2104,21 +2125,21 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2137,18 +2158,18 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="5" t="b">
         <v>0</v>
@@ -2162,34 +2183,34 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="5" t="b">
         <v>1</v>
@@ -2203,32 +2224,32 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5" t="b">
         <v>0</v>
@@ -2242,32 +2263,32 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="5" t="b">
         <v>0</v>
@@ -2281,21 +2302,21 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2314,18 +2335,18 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4" t="b">
         <v>0</v>
@@ -2339,21 +2360,21 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2372,20 +2393,20 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2399,24 +2420,24 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="5" t="b">
         <v>0</v>
@@ -2430,34 +2451,34 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="5" t="b">
         <v>1</v>
@@ -2471,21 +2492,21 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2504,20 +2525,20 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2531,13 +2552,13 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2556,18 +2577,18 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="5" t="b">
         <v>0</v>
@@ -2581,32 +2602,32 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="b">
         <v>0</v>
@@ -2620,21 +2641,21 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2653,20 +2674,20 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2680,13 +2701,13 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2705,18 +2726,18 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="5" t="b">
         <v>0</v>
@@ -2730,34 +2751,34 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="5" t="b">
         <v>1</v>
@@ -2771,32 +2792,32 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="5" t="b">
         <v>1</v>
@@ -2810,34 +2831,34 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="5" t="b">
         <v>1</v>
@@ -2851,21 +2872,21 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2884,20 +2905,20 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2911,26 +2932,26 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2944,26 +2965,26 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q42" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2977,24 +2998,24 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="4" t="b">
         <v>1</v>
@@ -3008,34 +3029,34 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="4" t="b">
         <v>1</v>
@@ -3049,32 +3070,32 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4" t="b">
         <v>0</v>
@@ -3088,34 +3109,34 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="4" t="b">
         <v>1</v>
@@ -3129,32 +3150,32 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" s="4" t="b">
         <v>0</v>
@@ -3168,34 +3189,34 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="4" t="b">
         <v>1</v>
@@ -3209,32 +3230,32 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q49" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" s="4" t="b">
         <v>0</v>
@@ -3248,21 +3269,21 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3281,18 +3302,18 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="5" t="b">
         <v>0</v>
@@ -3306,21 +3327,21 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3339,20 +3360,20 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G54" s="4" t="b">
         <v>1</v>
@@ -3366,34 +3387,34 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q54" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" s="4" t="b">
         <v>1</v>
@@ -3407,21 +3428,21 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3440,20 +3461,20 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3467,26 +3488,26 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q57" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Q57" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G58" s="5" t="b">
         <v>1</v>
@@ -3500,34 +3521,34 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="5" t="b">
         <v>1</v>
@@ -3541,34 +3562,34 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3582,13 +3603,13 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3607,20 +3628,20 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G62" s="4" t="b">
         <v>1</v>
@@ -3634,32 +3655,32 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q62" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G63" s="4" t="b">
         <v>0</v>
@@ -3673,32 +3694,32 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q63" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" s="4" t="b">
         <v>1</v>
@@ -3712,32 +3733,32 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G65" s="4" t="b">
         <v>1</v>
@@ -3751,32 +3772,32 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G66" s="4" t="b">
         <v>0</v>
@@ -3790,18 +3811,18 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3821,19 +3842,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3843,361 +3864,361 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>117</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4217,19 +4238,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4237,178 +4258,178 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4425,13 +4446,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4439,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4447,78 +4468,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>45431.300828611107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>45431.300828611107</v>
